--- a/nodes_source_analyses/energy/energy_power_geothermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_geothermal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -320,9 +328,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -748,17 +753,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1965</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -911,11 +920,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1572,7 +1576,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1583,59 +1587,59 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1652,13 +1656,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1667,7 +1671,7 @@
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1680,10 +1684,10 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1695,7 +1699,7 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1711,7 +1715,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1724,17 +1728,17 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1764,10 +1768,10 @@
     <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1784,32 +1788,32 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2073,80 +2077,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2530,7 +2469,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2967,52 +2906,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -3021,29 +2960,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="101" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="102"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="103"/>
       <c r="C10" s="104"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="103" t="s">
         <v>79</v>
@@ -3052,33 +2991,33 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="103"/>
       <c r="C12" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="103"/>
       <c r="C13" s="106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="103"/>
       <c r="C14" s="104" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="103"/>
       <c r="C15" s="104"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="103" t="s">
         <v>84</v>
@@ -3087,49 +3026,49 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="103"/>
       <c r="C17" s="108" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="103"/>
       <c r="C18" s="109" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="103"/>
       <c r="C19" s="110" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="111"/>
       <c r="C20" s="112" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="111"/>
       <c r="C21" s="113" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="111"/>
       <c r="C22" s="114" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="111"/>
       <c r="C23" s="115" t="s">
         <v>92</v>
@@ -3138,49 +3077,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="155" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
@@ -3188,7 +3122,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="158"/>
       <c r="C3" s="159"/>
       <c r="D3" s="159"/>
@@ -3196,7 +3130,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="161"/>
       <c r="C4" s="162"/>
       <c r="D4" s="162"/>
@@ -3204,10 +3138,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -3218,7 +3152,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="116"/>
       <c r="C7" s="15" t="s">
         <v>34</v>
@@ -3239,7 +3173,7 @@
       </c>
       <c r="J7" s="123"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -3250,10 +3184,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -3263,10 +3197,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3282,7 +3216,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>36</v>
@@ -3302,7 +3236,7 @@
       <c r="J11" s="124"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>37</v>
@@ -3322,7 +3256,7 @@
       <c r="J12" s="124"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>39</v>
@@ -3342,7 +3276,7 @@
       <c r="J13" s="124"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>11</v>
@@ -3362,7 +3296,7 @@
       <c r="J14" s="124"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>42</v>
@@ -3382,7 +3316,7 @@
       <c r="J15" s="124"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>43</v>
@@ -3402,7 +3336,7 @@
       <c r="J16" s="124"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>44</v>
@@ -3420,11 +3354,11 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="149" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J17" s="124"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>45</v>
@@ -3445,7 +3379,7 @@
       </c>
       <c r="J18" s="124"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="70" t="s">
         <v>67</v>
@@ -3466,7 +3400,7 @@
       </c>
       <c r="J19" s="124"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="70" t="s">
         <v>68</v>
@@ -3487,7 +3421,7 @@
       </c>
       <c r="J20" s="124"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="70" t="s">
         <v>69</v>
@@ -3508,7 +3442,7 @@
       </c>
       <c r="J21" s="124"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="70" t="s">
         <v>70</v>
@@ -3529,7 +3463,7 @@
       </c>
       <c r="J22" s="124"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="70" t="s">
         <v>71</v>
@@ -3550,7 +3484,7 @@
       </c>
       <c r="J23" s="124"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="91"/>
       <c r="D24" s="119"/>
@@ -3561,10 +3495,10 @@
       <c r="I24" s="32"/>
       <c r="J24" s="124"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" s="119"/>
       <c r="E25" s="120"/>
@@ -3574,7 +3508,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="124"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3592,11 +3526,11 @@
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="149" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26" s="124"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>47</v>
@@ -3617,7 +3551,7 @@
       </c>
       <c r="J27" s="124"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>13</v>
@@ -3638,7 +3572,7 @@
       </c>
       <c r="J28" s="124"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>48</v>
@@ -3659,7 +3593,7 @@
       </c>
       <c r="J29" s="124"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>49</v>
@@ -3677,11 +3611,11 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J30" s="124"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>50</v>
@@ -3703,7 +3637,7 @@
       </c>
       <c r="J31" s="124"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>51</v>
@@ -3724,7 +3658,7 @@
       </c>
       <c r="J32" s="124"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>54</v>
@@ -3745,7 +3679,7 @@
       </c>
       <c r="J33" s="124"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>41</v>
@@ -3764,7 +3698,7 @@
       </c>
       <c r="J34" s="124"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="33"/>
       <c r="D35" s="19"/>
@@ -3775,7 +3709,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="124"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="14" t="s">
         <v>8</v>
@@ -3788,7 +3722,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="124"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>40</v>
@@ -3806,11 +3740,11 @@
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="144" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J37" s="124"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>52</v>
@@ -3828,11 +3762,11 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J38" s="124"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="33" t="s">
         <v>53</v>
@@ -3850,11 +3784,11 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J39" s="124"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="33" t="s">
         <v>38</v>
@@ -3873,10 +3807,10 @@
       </c>
       <c r="J40" s="124"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="118">
@@ -3890,10 +3824,10 @@
       </c>
       <c r="J41" s="124"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="118">
@@ -3907,10 +3841,10 @@
       </c>
       <c r="J42" s="124"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="118">
@@ -3924,10 +3858,10 @@
       </c>
       <c r="J43" s="124"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="137" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="118">
@@ -3941,10 +3875,10 @@
       </c>
       <c r="J44" s="124"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="137" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="118">
@@ -3958,7 +3892,7 @@
       </c>
       <c r="J45" s="124"/>
     </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -3975,43 +3909,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4026,32 +3923,31 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="73" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="73" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="73" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="73" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="73" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="73" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="74" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="73" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="73" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="73" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="73" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="73" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="74" customWidth="1"/>
     <col min="10" max="10" width="3" style="74" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="74" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="74" customWidth="1"/>
     <col min="12" max="12" width="3" style="74" customWidth="1"/>
-    <col min="13" max="13" width="8.625" style="74" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="74" customWidth="1"/>
     <col min="14" max="14" width="3" style="74" customWidth="1"/>
-    <col min="15" max="15" width="8.75" style="74" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="74" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="74" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="74" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="74" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="74" customWidth="1"/>
     <col min="18" max="18" width="3" style="74" customWidth="1"/>
     <col min="19" max="19" width="60" style="73" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="73"/>
+    <col min="20" max="16384" width="10.7109375" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19">
+    <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="75"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -4071,10 +3967,10 @@
       <c r="R2" s="77"/>
       <c r="S2" s="76"/>
     </row>
-    <row r="3" spans="2:19" s="21" customFormat="1">
+    <row r="3" spans="2:19" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="129" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4086,30 +3982,30 @@
       </c>
       <c r="H3" s="129"/>
       <c r="I3" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N3" s="66"/>
       <c r="O3" s="66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="66"/>
       <c r="Q3" s="66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R3" s="66"/>
       <c r="S3" s="129" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -4129,10 +4025,10 @@
       <c r="R4" s="128"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="2:19" ht="16" thickBot="1">
+    <row r="5" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="78"/>
       <c r="C5" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -4150,10 +4046,10 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="147" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="16" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="78"/>
       <c r="C6" s="143" t="s">
         <v>31</v>
@@ -4186,7 +4082,7 @@
       <c r="R6" s="80"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="78"/>
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
@@ -4206,7 +4102,7 @@
       <c r="R7" s="88"/>
       <c r="S7" s="130"/>
     </row>
-    <row r="8" spans="2:19" ht="16" thickBot="1">
+    <row r="8" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="78"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -4228,10 +4124,10 @@
       <c r="R8" s="12"/>
       <c r="S8" s="30"/>
     </row>
-    <row r="9" spans="2:19" ht="16" thickBot="1">
+    <row r="9" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="78"/>
       <c r="C9" s="131" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="86"/>
@@ -4257,10 +4153,10 @@
       </c>
       <c r="R9" s="88"/>
       <c r="S9" s="146" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="78"/>
       <c r="C10" s="92" t="s">
         <v>1</v>
@@ -4292,10 +4188,10 @@
       <c r="Q10" s="140"/>
       <c r="R10" s="89"/>
       <c r="S10" s="141" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="16" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="78"/>
       <c r="C11" s="94" t="s">
         <v>6</v>
@@ -4325,7 +4221,7 @@
       <c r="R11" s="89"/>
       <c r="S11" s="135"/>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="78"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -4345,10 +4241,10 @@
       <c r="R12" s="89"/>
       <c r="S12" s="70"/>
     </row>
-    <row r="13" spans="2:19" ht="16" thickBot="1">
+    <row r="13" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="78"/>
       <c r="C13" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -4367,10 +4263,10 @@
       <c r="R13" s="12"/>
       <c r="S13" s="70"/>
     </row>
-    <row r="14" spans="2:19" ht="16" thickBot="1">
+    <row r="14" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78"/>
       <c r="C14" s="125" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4394,7 +4290,7 @@
       <c r="R14" s="88"/>
       <c r="S14" s="136"/>
     </row>
-    <row r="15" spans="2:19" ht="16" thickBot="1">
+    <row r="15" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="78"/>
       <c r="C15" s="96" t="s">
         <v>9</v>
@@ -4402,7 +4298,7 @@
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
       <c r="F15" s="126" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="93">
         <f>AVERAGE(I15,K15)</f>
@@ -4426,18 +4322,18 @@
       <c r="Q15" s="88"/>
       <c r="R15" s="88"/>
       <c r="S15" s="150" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="16" thickBot="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="78"/>
       <c r="C16" s="134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="97">
         <f>ROUND((G17*G6*1000),2)</f>
@@ -4455,18 +4351,18 @@
       <c r="Q16" s="88"/>
       <c r="R16" s="88"/>
       <c r="S16" s="150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="16" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="78"/>
       <c r="C17" s="125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="97">
         <f>ROUND(AVERAGE(I17,K17),2)</f>
@@ -4490,13 +4386,13 @@
       <c r="Q17" s="88"/>
       <c r="R17" s="88"/>
       <c r="S17" s="150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="16" thickBot="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="78"/>
       <c r="C18" s="134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="99"/>
       <c r="E18" s="99"/>
@@ -4518,18 +4414,18 @@
       <c r="Q18" s="88"/>
       <c r="R18" s="88"/>
       <c r="S18" s="150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" ht="16" thickBot="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="78"/>
       <c r="C19" s="125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
       <c r="F19" s="126" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="100">
         <v>0</v>
@@ -4550,11 +4446,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4569,22 +4460,22 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="76.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="76.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4596,7 +4487,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4610,7 +4501,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4622,7 +4513,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>32</v>
@@ -4638,19 +4529,19 @@
         <v>33</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>63</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4662,31 +4553,31 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="64"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
         <v>1</v>
@@ -4700,7 +4591,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="69"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="58" t="s">
         <v>66</v>
@@ -4714,7 +4605,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -4726,31 +4617,31 @@
       <c r="J10" s="54"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
       <c r="E11" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F11" s="60" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I11" s="61"/>
       <c r="J11" s="61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K11" s="58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="63" t="s">
         <v>1</v>
@@ -4764,10 +4655,10 @@
       <c r="J12" s="61"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="53"/>
@@ -4778,7 +4669,7 @@
       <c r="J13" s="65"/>
       <c r="K13" s="62"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
@@ -4790,15 +4681,15 @@
       <c r="J14" s="65"/>
       <c r="K14" s="62"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
       <c r="E15" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="67">
         <v>2014</v>
@@ -4808,16 +4699,16 @@
       </c>
       <c r="I15" s="58"/>
       <c r="J15" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" s="62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="53"/>
@@ -4828,10 +4719,10 @@
       <c r="J16" s="65"/>
       <c r="K16" s="62"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
       <c r="C17" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="53"/>
@@ -4842,7 +4733,7 @@
       <c r="J17" s="65"/>
       <c r="K17" s="58"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="50"/>
       <c r="C18" s="59" t="s">
         <v>29</v>
@@ -4856,7 +4747,7 @@
       <c r="J18" s="65"/>
       <c r="K18" s="58"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="50"/>
       <c r="C19" s="59"/>
       <c r="D19" s="58"/>
@@ -4868,34 +4759,34 @@
       <c r="J19" s="65"/>
       <c r="K19" s="58"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="50"/>
       <c r="C20" s="59"/>
       <c r="D20" s="58"/>
       <c r="E20" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="67">
         <v>2014</v>
       </c>
       <c r="H20" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I20" s="58"/>
       <c r="J20" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K20" s="58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="50"/>
       <c r="C21" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="53"/>
@@ -4906,10 +4797,10 @@
       <c r="J21" s="65"/>
       <c r="K21" s="58"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="50"/>
       <c r="C22" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="53"/>
@@ -4920,7 +4811,7 @@
       <c r="J22" s="65"/>
       <c r="K22" s="58"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="50"/>
       <c r="C23" s="59" t="s">
         <v>29</v>
@@ -4934,7 +4825,7 @@
       <c r="J23" s="65"/>
       <c r="K23" s="58"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="50"/>
       <c r="C24" s="59"/>
       <c r="D24" s="58"/>
@@ -4946,15 +4837,15 @@
       <c r="J24" s="65"/>
       <c r="K24" s="58"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="50"/>
       <c r="C25" s="59"/>
       <c r="D25" s="58"/>
       <c r="E25" s="53" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="67">
         <v>2011</v>
@@ -4964,16 +4855,16 @@
       </c>
       <c r="I25" s="58"/>
       <c r="J25" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K25" s="58" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="50"/>
       <c r="C26" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="53"/>
@@ -4990,11 +4881,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7 G11:H11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5006,15 +4892,15 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="148" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="148" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="148"/>
+    <col min="1" max="1" width="5.85546875" style="148" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="148" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17" s="21" customFormat="1">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="151"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -5032,13 +4918,13 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="2:17" s="21" customFormat="1">
+    <row r="3" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="116"/>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -5054,7 +4940,7 @@
       <c r="P3" s="15"/>
       <c r="Q3" s="15"/>
     </row>
-    <row r="4" spans="2:17" s="21" customFormat="1">
+    <row r="4" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -5072,10 +4958,10 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="152"/>
       <c r="C5" s="153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="153"/>
       <c r="E5" s="153"/>
@@ -5092,10 +4978,10 @@
       <c r="P5" s="153"/>
       <c r="Q5" s="153"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="152"/>
       <c r="C6" s="153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="153"/>
       <c r="E6" s="153"/>
@@ -5112,7 +4998,7 @@
       <c r="P6" s="153"/>
       <c r="Q6" s="153"/>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="152"/>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -5130,7 +5016,7 @@
       <c r="P7" s="153"/>
       <c r="Q7" s="153"/>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="152"/>
       <c r="C8" s="153"/>
       <c r="D8" s="153"/>
@@ -5148,7 +5034,7 @@
       <c r="P8" s="153"/>
       <c r="Q8" s="153"/>
     </row>
-    <row r="9" spans="2:17">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="152"/>
       <c r="C9" s="153"/>
       <c r="D9" s="153"/>
@@ -5166,7 +5052,7 @@
       <c r="P9" s="153"/>
       <c r="Q9" s="153"/>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="152"/>
       <c r="C10" s="153"/>
       <c r="D10" s="153">
@@ -5188,7 +5074,7 @@
       <c r="P10" s="153"/>
       <c r="Q10" s="153"/>
     </row>
-    <row r="11" spans="2:17">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="152"/>
       <c r="C11" s="153"/>
       <c r="D11" s="153"/>
@@ -5206,7 +5092,7 @@
       <c r="P11" s="153"/>
       <c r="Q11" s="153"/>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="152"/>
       <c r="C12" s="153"/>
       <c r="D12" s="153"/>
@@ -5224,7 +5110,7 @@
       <c r="P12" s="153"/>
       <c r="Q12" s="153"/>
     </row>
-    <row r="13" spans="2:17">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="152"/>
       <c r="C13" s="153"/>
       <c r="D13" s="153"/>
@@ -5242,7 +5128,7 @@
       <c r="P13" s="153"/>
       <c r="Q13" s="153"/>
     </row>
-    <row r="14" spans="2:17">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="152"/>
       <c r="C14" s="153"/>
       <c r="D14" s="153"/>
@@ -5260,7 +5146,7 @@
       <c r="P14" s="153"/>
       <c r="Q14" s="153"/>
     </row>
-    <row r="15" spans="2:17">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="152"/>
       <c r="C15" s="153"/>
       <c r="D15" s="153"/>
@@ -5278,7 +5164,7 @@
       <c r="P15" s="153"/>
       <c r="Q15" s="153"/>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="152"/>
       <c r="C16" s="153"/>
       <c r="D16" s="153"/>
@@ -5296,14 +5182,14 @@
       <c r="P16" s="153"/>
       <c r="Q16" s="153"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="152"/>
       <c r="C17" s="153"/>
       <c r="D17" s="153">
         <v>5300</v>
       </c>
       <c r="E17" s="153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="153"/>
       <c r="G17" s="153"/>
@@ -5318,14 +5204,14 @@
       <c r="P17" s="153"/>
       <c r="Q17" s="153"/>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="152"/>
       <c r="C18" s="153"/>
       <c r="D18" s="153">
         <v>4184</v>
       </c>
       <c r="E18" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="153"/>
       <c r="G18" s="153"/>
@@ -5340,7 +5226,7 @@
       <c r="P18" s="153"/>
       <c r="Q18" s="153"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="152"/>
       <c r="C19" s="153"/>
       <c r="D19" s="153"/>
@@ -5358,7 +5244,7 @@
       <c r="P19" s="153"/>
       <c r="Q19" s="153"/>
     </row>
-    <row r="20" spans="2:17">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="152"/>
       <c r="C20" s="153"/>
       <c r="D20" s="153"/>
@@ -5376,7 +5262,7 @@
       <c r="P20" s="153"/>
       <c r="Q20" s="153"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="152"/>
       <c r="C21" s="153"/>
       <c r="D21" s="153"/>
@@ -5394,7 +5280,7 @@
       <c r="P21" s="153"/>
       <c r="Q21" s="153"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="152"/>
       <c r="C22" s="153"/>
       <c r="D22" s="153"/>
@@ -5412,7 +5298,7 @@
       <c r="P22" s="153"/>
       <c r="Q22" s="153"/>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="152"/>
       <c r="C23" s="153"/>
       <c r="D23" s="153"/>
@@ -5430,7 +5316,7 @@
       <c r="P23" s="153"/>
       <c r="Q23" s="153"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="152"/>
       <c r="C24" s="153"/>
       <c r="D24" s="153"/>
@@ -5448,7 +5334,7 @@
       <c r="P24" s="153"/>
       <c r="Q24" s="153"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="152"/>
       <c r="C25" s="153"/>
       <c r="D25" s="153"/>
@@ -5466,10 +5352,10 @@
       <c r="P25" s="153"/>
       <c r="Q25" s="153"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="152"/>
       <c r="C26" s="153" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="153"/>
       <c r="E26" s="153"/>
@@ -5486,7 +5372,7 @@
       <c r="P26" s="153"/>
       <c r="Q26" s="153"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="152"/>
       <c r="C27" s="153"/>
       <c r="D27" s="153"/>
@@ -5504,7 +5390,7 @@
       <c r="P27" s="153"/>
       <c r="Q27" s="153"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="152"/>
       <c r="C28" s="153"/>
       <c r="D28" s="153"/>
@@ -5522,7 +5408,7 @@
       <c r="P28" s="153"/>
       <c r="Q28" s="153"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="152"/>
       <c r="C29" s="153"/>
       <c r="D29" s="153"/>
@@ -5540,7 +5426,7 @@
       <c r="P29" s="153"/>
       <c r="Q29" s="153"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="152"/>
       <c r="C30" s="153"/>
       <c r="D30" s="153"/>
@@ -5558,14 +5444,14 @@
       <c r="P30" s="153"/>
       <c r="Q30" s="153"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="152"/>
       <c r="C31" s="153"/>
       <c r="D31" s="153">
         <v>43</v>
       </c>
       <c r="E31" s="153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="153"/>
       <c r="G31" s="153"/>
@@ -5580,14 +5466,14 @@
       <c r="P31" s="153"/>
       <c r="Q31" s="153"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="152"/>
       <c r="C32" s="153"/>
       <c r="D32" s="153">
         <v>33.9</v>
       </c>
       <c r="E32" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="153"/>
       <c r="G32" s="153"/>
@@ -5602,7 +5488,7 @@
       <c r="P32" s="153"/>
       <c r="Q32" s="153"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="152"/>
       <c r="C33" s="153"/>
       <c r="D33" s="153"/>
@@ -5620,7 +5506,7 @@
       <c r="P33" s="153"/>
       <c r="Q33" s="153"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="152"/>
       <c r="C34" s="153"/>
       <c r="D34" s="153"/>
@@ -5638,7 +5524,7 @@
       <c r="P34" s="153"/>
       <c r="Q34" s="153"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="152"/>
       <c r="C35" s="153"/>
       <c r="D35" s="153"/>
@@ -5656,7 +5542,7 @@
       <c r="P35" s="153"/>
       <c r="Q35" s="153"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="152"/>
       <c r="C36" s="153"/>
       <c r="D36" s="153"/>
@@ -5674,7 +5560,7 @@
       <c r="P36" s="153"/>
       <c r="Q36" s="153"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="152"/>
       <c r="C37" s="153"/>
       <c r="D37" s="153"/>
@@ -5692,7 +5578,7 @@
       <c r="P37" s="153"/>
       <c r="Q37" s="153"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="152"/>
       <c r="C38" s="153"/>
       <c r="D38" s="153"/>
@@ -5710,7 +5596,7 @@
       <c r="P38" s="153"/>
       <c r="Q38" s="153"/>
     </row>
-    <row r="39" spans="2:17">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="152"/>
       <c r="C39" s="153"/>
       <c r="D39" s="153"/>
@@ -5728,7 +5614,7 @@
       <c r="P39" s="153"/>
       <c r="Q39" s="153"/>
     </row>
-    <row r="40" spans="2:17">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="152"/>
       <c r="C40" s="153"/>
       <c r="D40" s="153"/>
@@ -5746,7 +5632,7 @@
       <c r="P40" s="153"/>
       <c r="Q40" s="153"/>
     </row>
-    <row r="41" spans="2:17">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="152"/>
       <c r="C41" s="153"/>
       <c r="D41" s="153"/>
@@ -5764,10 +5650,10 @@
       <c r="P41" s="153"/>
       <c r="Q41" s="153"/>
     </row>
-    <row r="42" spans="2:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="152"/>
       <c r="C42" s="153" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="153"/>
       <c r="E42" s="153"/>
@@ -5784,10 +5670,10 @@
       <c r="P42" s="153"/>
       <c r="Q42" s="153"/>
     </row>
-    <row r="43" spans="2:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="152"/>
       <c r="C43" s="153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="153"/>
       <c r="E43" s="153"/>
@@ -5804,7 +5690,7 @@
       <c r="P43" s="153"/>
       <c r="Q43" s="153"/>
     </row>
-    <row r="44" spans="2:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="152"/>
       <c r="C44" s="153"/>
       <c r="D44" s="153"/>
@@ -5822,7 +5708,7 @@
       <c r="P44" s="153"/>
       <c r="Q44" s="153"/>
     </row>
-    <row r="45" spans="2:17">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="152"/>
       <c r="C45" s="153"/>
       <c r="D45" s="153"/>
@@ -5840,7 +5726,7 @@
       <c r="P45" s="153"/>
       <c r="Q45" s="153"/>
     </row>
-    <row r="46" spans="2:17">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="152"/>
       <c r="C46" s="153"/>
       <c r="D46" s="153"/>
@@ -5858,7 +5744,7 @@
       <c r="P46" s="153"/>
       <c r="Q46" s="153"/>
     </row>
-    <row r="47" spans="2:17">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="152"/>
       <c r="C47" s="153"/>
       <c r="D47" s="153"/>
@@ -5876,7 +5762,7 @@
       <c r="P47" s="153"/>
       <c r="Q47" s="153"/>
     </row>
-    <row r="48" spans="2:17">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="152"/>
       <c r="C48" s="153"/>
       <c r="D48" s="153"/>
@@ -5894,7 +5780,7 @@
       <c r="P48" s="153"/>
       <c r="Q48" s="153"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="152"/>
       <c r="C49" s="153"/>
       <c r="D49" s="153"/>
@@ -5912,7 +5798,7 @@
       <c r="P49" s="153"/>
       <c r="Q49" s="153"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="152"/>
       <c r="C50" s="153"/>
       <c r="D50" s="153"/>
@@ -5930,7 +5816,7 @@
       <c r="P50" s="153"/>
       <c r="Q50" s="153"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="152"/>
       <c r="C51" s="153"/>
       <c r="D51" s="153"/>
@@ -5948,7 +5834,7 @@
       <c r="P51" s="153"/>
       <c r="Q51" s="153"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="152"/>
       <c r="C52" s="153"/>
       <c r="D52" s="153"/>
@@ -5966,7 +5852,7 @@
       <c r="P52" s="153"/>
       <c r="Q52" s="153"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="152"/>
       <c r="C53" s="153"/>
       <c r="D53" s="153"/>
@@ -5984,7 +5870,7 @@
       <c r="P53" s="153"/>
       <c r="Q53" s="153"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="152"/>
       <c r="C54" s="153"/>
       <c r="D54" s="153"/>
@@ -6002,7 +5888,7 @@
       <c r="P54" s="153"/>
       <c r="Q54" s="153"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="152"/>
       <c r="C55" s="153"/>
       <c r="D55" s="153"/>
@@ -6020,7 +5906,7 @@
       <c r="P55" s="153"/>
       <c r="Q55" s="153"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="152"/>
       <c r="C56" s="153"/>
       <c r="D56" s="153"/>
@@ -6038,7 +5924,7 @@
       <c r="P56" s="153"/>
       <c r="Q56" s="153"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="152"/>
       <c r="C57" s="153"/>
       <c r="D57" s="153"/>
@@ -6056,7 +5942,7 @@
       <c r="P57" s="153"/>
       <c r="Q57" s="153"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="152"/>
       <c r="C58" s="153"/>
       <c r="D58" s="153"/>
@@ -6074,7 +5960,7 @@
       <c r="P58" s="153"/>
       <c r="Q58" s="153"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="152"/>
       <c r="C59" s="153"/>
       <c r="D59" s="153"/>
@@ -6092,7 +5978,7 @@
       <c r="P59" s="153"/>
       <c r="Q59" s="153"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="152"/>
       <c r="C60" s="153"/>
       <c r="D60" s="153"/>
@@ -6110,7 +5996,7 @@
       <c r="P60" s="153"/>
       <c r="Q60" s="153"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="152"/>
       <c r="C61" s="153"/>
       <c r="D61" s="153"/>
@@ -6128,7 +6014,7 @@
       <c r="P61" s="153"/>
       <c r="Q61" s="153"/>
     </row>
-    <row r="62" spans="2:17">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="152"/>
       <c r="C62" s="153"/>
       <c r="D62" s="153"/>
@@ -6146,7 +6032,7 @@
       <c r="P62" s="153"/>
       <c r="Q62" s="153"/>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="152"/>
       <c r="C63" s="153"/>
       <c r="D63" s="153"/>
@@ -6164,7 +6050,7 @@
       <c r="P63" s="153"/>
       <c r="Q63" s="153"/>
     </row>
-    <row r="64" spans="2:17">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="152"/>
       <c r="C64" s="153"/>
       <c r="D64" s="153"/>
@@ -6182,7 +6068,7 @@
       <c r="P64" s="153"/>
       <c r="Q64" s="153"/>
     </row>
-    <row r="65" spans="2:17">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="152"/>
       <c r="C65" s="153"/>
       <c r="D65" s="153"/>
@@ -6200,7 +6086,7 @@
       <c r="P65" s="153"/>
       <c r="Q65" s="153"/>
     </row>
-    <row r="66" spans="2:17">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="152"/>
       <c r="C66" s="153"/>
       <c r="D66" s="153"/>
@@ -6218,7 +6104,7 @@
       <c r="P66" s="153"/>
       <c r="Q66" s="153"/>
     </row>
-    <row r="67" spans="2:17">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="152"/>
       <c r="C67" s="153"/>
       <c r="D67" s="153"/>
@@ -6236,7 +6122,7 @@
       <c r="P67" s="153"/>
       <c r="Q67" s="153"/>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="152"/>
       <c r="C68" s="153"/>
       <c r="D68" s="153"/>
@@ -6254,7 +6140,7 @@
       <c r="P68" s="153"/>
       <c r="Q68" s="153"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="152"/>
       <c r="C69" s="153"/>
       <c r="D69" s="153"/>
@@ -6272,7 +6158,7 @@
       <c r="P69" s="153"/>
       <c r="Q69" s="153"/>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="152"/>
       <c r="C70" s="153"/>
       <c r="D70" s="153"/>
@@ -6290,7 +6176,7 @@
       <c r="P70" s="153"/>
       <c r="Q70" s="153"/>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="152"/>
       <c r="C71" s="153"/>
       <c r="D71" s="153"/>
@@ -6308,7 +6194,7 @@
       <c r="P71" s="153"/>
       <c r="Q71" s="153"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="152"/>
       <c r="C72" s="153"/>
       <c r="D72" s="153"/>
@@ -6326,7 +6212,7 @@
       <c r="P72" s="153"/>
       <c r="Q72" s="153"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="152"/>
       <c r="C73" s="153"/>
       <c r="D73" s="153"/>
@@ -6344,7 +6230,7 @@
       <c r="P73" s="153"/>
       <c r="Q73" s="153"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="152"/>
       <c r="C74" s="153"/>
       <c r="D74" s="153"/>
@@ -6362,7 +6248,7 @@
       <c r="P74" s="153"/>
       <c r="Q74" s="153"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="152"/>
       <c r="C75" s="153"/>
       <c r="D75" s="153"/>
@@ -6380,7 +6266,7 @@
       <c r="P75" s="153"/>
       <c r="Q75" s="153"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="152"/>
       <c r="C76" s="153"/>
       <c r="D76" s="153"/>
@@ -6398,7 +6284,7 @@
       <c r="P76" s="153"/>
       <c r="Q76" s="153"/>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="152"/>
       <c r="C77" s="153"/>
       <c r="D77" s="153"/>
@@ -6416,7 +6302,7 @@
       <c r="P77" s="153"/>
       <c r="Q77" s="153"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="152"/>
       <c r="C78" s="153"/>
       <c r="D78" s="153"/>
@@ -6434,7 +6320,7 @@
       <c r="P78" s="153"/>
       <c r="Q78" s="153"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="152"/>
       <c r="C79" s="153"/>
       <c r="D79" s="153"/>
@@ -6452,7 +6338,7 @@
       <c r="P79" s="153"/>
       <c r="Q79" s="153"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="152"/>
       <c r="C80" s="153"/>
       <c r="D80" s="153"/>
@@ -6470,7 +6356,7 @@
       <c r="P80" s="153"/>
       <c r="Q80" s="153"/>
     </row>
-    <row r="81" spans="2:17">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="152"/>
       <c r="C81" s="153"/>
       <c r="D81" s="153"/>
@@ -6488,7 +6374,7 @@
       <c r="P81" s="153"/>
       <c r="Q81" s="153"/>
     </row>
-    <row r="82" spans="2:17">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="152"/>
       <c r="C82" s="153"/>
       <c r="D82" s="153"/>
@@ -6506,7 +6392,7 @@
       <c r="P82" s="153"/>
       <c r="Q82" s="153"/>
     </row>
-    <row r="83" spans="2:17">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="152"/>
       <c r="C83" s="153"/>
       <c r="D83" s="153"/>
@@ -6524,7 +6410,7 @@
       <c r="P83" s="153"/>
       <c r="Q83" s="153"/>
     </row>
-    <row r="84" spans="2:17">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="152"/>
       <c r="C84" s="153"/>
       <c r="D84" s="153"/>
@@ -6542,7 +6428,7 @@
       <c r="P84" s="153"/>
       <c r="Q84" s="153"/>
     </row>
-    <row r="85" spans="2:17">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="152"/>
       <c r="C85" s="153"/>
       <c r="D85" s="153"/>
@@ -6560,7 +6446,7 @@
       <c r="P85" s="153"/>
       <c r="Q85" s="153"/>
     </row>
-    <row r="86" spans="2:17">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="152"/>
       <c r="C86" s="153"/>
       <c r="D86" s="153"/>
@@ -6578,7 +6464,7 @@
       <c r="P86" s="153"/>
       <c r="Q86" s="153"/>
     </row>
-    <row r="87" spans="2:17">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="152"/>
       <c r="C87" s="153"/>
       <c r="D87" s="153"/>
@@ -6596,7 +6482,7 @@
       <c r="P87" s="153"/>
       <c r="Q87" s="153"/>
     </row>
-    <row r="88" spans="2:17">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="152"/>
       <c r="C88" s="153"/>
       <c r="D88" s="153"/>
@@ -6614,7 +6500,7 @@
       <c r="P88" s="153"/>
       <c r="Q88" s="153"/>
     </row>
-    <row r="89" spans="2:17">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="152"/>
       <c r="C89" s="153"/>
       <c r="D89" s="153"/>
@@ -6632,7 +6518,7 @@
       <c r="P89" s="153"/>
       <c r="Q89" s="153"/>
     </row>
-    <row r="90" spans="2:17">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="152"/>
       <c r="C90" s="153"/>
       <c r="D90" s="153"/>
@@ -6650,7 +6536,7 @@
       <c r="P90" s="153"/>
       <c r="Q90" s="153"/>
     </row>
-    <row r="91" spans="2:17">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="152"/>
       <c r="C91" s="153"/>
       <c r="D91" s="153"/>
@@ -6668,7 +6554,7 @@
       <c r="P91" s="153"/>
       <c r="Q91" s="153"/>
     </row>
-    <row r="92" spans="2:17">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="152"/>
       <c r="C92" s="153"/>
       <c r="D92" s="153">
@@ -6690,14 +6576,14 @@
       <c r="P92" s="153"/>
       <c r="Q92" s="153"/>
     </row>
-    <row r="93" spans="2:17">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="152"/>
       <c r="C93" s="153"/>
       <c r="D93" s="153">
         <v>59.6</v>
       </c>
       <c r="E93" s="153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F93" s="153"/>
       <c r="G93" s="153"/>
@@ -6712,14 +6598,14 @@
       <c r="P93" s="153"/>
       <c r="Q93" s="153"/>
     </row>
-    <row r="94" spans="2:17">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="152"/>
       <c r="C94" s="153"/>
       <c r="D94" s="153">
         <v>5960</v>
       </c>
       <c r="E94" s="153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F94" s="153"/>
       <c r="G94" s="153"/>
@@ -6734,14 +6620,14 @@
       <c r="P94" s="153"/>
       <c r="Q94" s="153"/>
     </row>
-    <row r="95" spans="2:17">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="152"/>
       <c r="C95" s="153"/>
       <c r="D95" s="153">
         <v>4700</v>
       </c>
       <c r="E95" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95" s="153"/>
       <c r="G95" s="153"/>
@@ -6756,7 +6642,7 @@
       <c r="P95" s="153"/>
       <c r="Q95" s="153"/>
     </row>
-    <row r="96" spans="2:17">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="152"/>
       <c r="C96" s="153"/>
       <c r="D96" s="153"/>
@@ -6774,7 +6660,7 @@
       <c r="P96" s="153"/>
       <c r="Q96" s="153"/>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="152"/>
       <c r="C97" s="153"/>
       <c r="D97" s="153"/>
@@ -6792,7 +6678,7 @@
       <c r="P97" s="153"/>
       <c r="Q97" s="153"/>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="152"/>
       <c r="C98" s="153"/>
       <c r="D98" s="153"/>
@@ -6810,7 +6696,7 @@
       <c r="P98" s="153"/>
       <c r="Q98" s="153"/>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="152"/>
       <c r="C99" s="153"/>
       <c r="D99" s="153"/>
@@ -6828,7 +6714,7 @@
       <c r="P99" s="153"/>
       <c r="Q99" s="153"/>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="152"/>
       <c r="C100" s="153"/>
       <c r="D100" s="153"/>
@@ -6846,7 +6732,7 @@
       <c r="P100" s="153"/>
       <c r="Q100" s="153"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="152"/>
       <c r="C101" s="153"/>
       <c r="D101" s="153"/>
@@ -6864,7 +6750,7 @@
       <c r="P101" s="153"/>
       <c r="Q101" s="153"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="152"/>
       <c r="C102" s="153"/>
       <c r="D102" s="153"/>
@@ -6882,7 +6768,7 @@
       <c r="P102" s="153"/>
       <c r="Q102" s="153"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="152"/>
       <c r="C103" s="153"/>
       <c r="D103" s="153"/>
@@ -6900,7 +6786,7 @@
       <c r="P103" s="153"/>
       <c r="Q103" s="153"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="152"/>
       <c r="C104" s="153"/>
       <c r="D104" s="153"/>
@@ -6918,7 +6804,7 @@
       <c r="P104" s="153"/>
       <c r="Q104" s="153"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="152"/>
       <c r="C105" s="153"/>
       <c r="D105" s="153"/>
@@ -6936,7 +6822,7 @@
       <c r="P105" s="153"/>
       <c r="Q105" s="153"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="152"/>
       <c r="C106" s="153"/>
       <c r="D106" s="153"/>
@@ -6954,7 +6840,7 @@
       <c r="P106" s="153"/>
       <c r="Q106" s="153"/>
     </row>
-    <row r="107" spans="2:17">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B107" s="152"/>
       <c r="C107" s="153"/>
       <c r="D107" s="153"/>
@@ -6972,7 +6858,7 @@
       <c r="P107" s="153"/>
       <c r="Q107" s="153"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="152"/>
       <c r="C108" s="153"/>
       <c r="D108" s="153"/>
@@ -6990,7 +6876,7 @@
       <c r="P108" s="153"/>
       <c r="Q108" s="153"/>
     </row>
-    <row r="109" spans="2:17">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B109" s="152"/>
       <c r="C109" s="153"/>
       <c r="D109" s="153"/>
@@ -7008,7 +6894,7 @@
       <c r="P109" s="153"/>
       <c r="Q109" s="153"/>
     </row>
-    <row r="110" spans="2:17">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B110" s="152"/>
       <c r="C110" s="153"/>
       <c r="D110" s="153"/>
@@ -7026,7 +6912,7 @@
       <c r="P110" s="153"/>
       <c r="Q110" s="153"/>
     </row>
-    <row r="111" spans="2:17">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B111" s="152"/>
       <c r="C111" s="153"/>
       <c r="D111" s="153"/>
@@ -7044,7 +6930,7 @@
       <c r="P111" s="153"/>
       <c r="Q111" s="153"/>
     </row>
-    <row r="112" spans="2:17">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B112" s="152"/>
       <c r="C112" s="153"/>
       <c r="D112" s="153"/>
@@ -7062,7 +6948,7 @@
       <c r="P112" s="153"/>
       <c r="Q112" s="153"/>
     </row>
-    <row r="113" spans="2:17">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B113" s="152"/>
       <c r="C113" s="153"/>
       <c r="D113" s="153"/>
@@ -7080,7 +6966,7 @@
       <c r="P113" s="153"/>
       <c r="Q113" s="153"/>
     </row>
-    <row r="114" spans="2:17">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B114" s="152"/>
       <c r="C114" s="153"/>
       <c r="D114" s="153"/>
@@ -7098,7 +6984,7 @@
       <c r="P114" s="153"/>
       <c r="Q114" s="153"/>
     </row>
-    <row r="115" spans="2:17">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B115" s="152"/>
       <c r="C115" s="153"/>
       <c r="D115" s="153"/>
@@ -7116,7 +7002,7 @@
       <c r="P115" s="153"/>
       <c r="Q115" s="153"/>
     </row>
-    <row r="116" spans="2:17">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B116" s="152"/>
       <c r="C116" s="153"/>
       <c r="D116" s="153"/>
@@ -7134,7 +7020,7 @@
       <c r="P116" s="153"/>
       <c r="Q116" s="153"/>
     </row>
-    <row r="117" spans="2:17">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B117" s="152"/>
       <c r="C117" s="153"/>
       <c r="D117" s="153"/>
@@ -7152,7 +7038,7 @@
       <c r="P117" s="153"/>
       <c r="Q117" s="153"/>
     </row>
-    <row r="118" spans="2:17">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B118" s="152"/>
       <c r="C118" s="153"/>
       <c r="D118" s="153"/>
@@ -7170,7 +7056,7 @@
       <c r="P118" s="153"/>
       <c r="Q118" s="153"/>
     </row>
-    <row r="119" spans="2:17">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B119" s="152"/>
       <c r="C119" s="153"/>
       <c r="D119" s="153"/>
@@ -7188,7 +7074,7 @@
       <c r="P119" s="153"/>
       <c r="Q119" s="153"/>
     </row>
-    <row r="120" spans="2:17">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B120" s="152"/>
       <c r="C120" s="153"/>
       <c r="D120" s="153"/>
@@ -7206,7 +7092,7 @@
       <c r="P120" s="153"/>
       <c r="Q120" s="153"/>
     </row>
-    <row r="121" spans="2:17">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B121" s="152"/>
       <c r="C121" s="153"/>
       <c r="D121" s="153"/>
@@ -7224,7 +7110,7 @@
       <c r="P121" s="153"/>
       <c r="Q121" s="153"/>
     </row>
-    <row r="122" spans="2:17">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B122" s="152"/>
       <c r="C122" s="153"/>
       <c r="D122" s="153"/>
@@ -7242,7 +7128,7 @@
       <c r="P122" s="153"/>
       <c r="Q122" s="153"/>
     </row>
-    <row r="123" spans="2:17">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B123" s="152"/>
       <c r="C123" s="153"/>
       <c r="D123" s="153"/>
@@ -7260,7 +7146,7 @@
       <c r="P123" s="153"/>
       <c r="Q123" s="153"/>
     </row>
-    <row r="124" spans="2:17">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B124" s="152"/>
       <c r="C124" s="153"/>
       <c r="D124" s="153"/>
@@ -7278,7 +7164,7 @@
       <c r="P124" s="153"/>
       <c r="Q124" s="153"/>
     </row>
-    <row r="125" spans="2:17">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B125" s="152"/>
       <c r="C125" s="153"/>
       <c r="D125" s="153"/>
@@ -7296,7 +7182,7 @@
       <c r="P125" s="153"/>
       <c r="Q125" s="153"/>
     </row>
-    <row r="126" spans="2:17">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B126" s="152"/>
       <c r="C126" s="153"/>
       <c r="D126" s="153"/>
@@ -7314,7 +7200,7 @@
       <c r="P126" s="153"/>
       <c r="Q126" s="153"/>
     </row>
-    <row r="127" spans="2:17">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B127" s="152"/>
       <c r="C127" s="153"/>
       <c r="D127" s="153"/>
@@ -7332,7 +7218,7 @@
       <c r="P127" s="153"/>
       <c r="Q127" s="153"/>
     </row>
-    <row r="128" spans="2:17">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B128" s="152"/>
       <c r="C128" s="153"/>
       <c r="D128" s="153"/>
@@ -7350,7 +7236,7 @@
       <c r="P128" s="153"/>
       <c r="Q128" s="153"/>
     </row>
-    <row r="129" spans="2:17">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B129" s="152"/>
       <c r="C129" s="153"/>
       <c r="D129" s="153"/>
@@ -7368,7 +7254,7 @@
       <c r="P129" s="153"/>
       <c r="Q129" s="153"/>
     </row>
-    <row r="130" spans="2:17">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B130" s="152"/>
       <c r="C130" s="153"/>
       <c r="D130" s="153"/>
@@ -7386,7 +7272,7 @@
       <c r="P130" s="153"/>
       <c r="Q130" s="153"/>
     </row>
-    <row r="131" spans="2:17">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B131" s="152"/>
       <c r="C131" s="153"/>
       <c r="D131" s="153"/>
@@ -7404,7 +7290,7 @@
       <c r="P131" s="153"/>
       <c r="Q131" s="153"/>
     </row>
-    <row r="132" spans="2:17">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B132" s="152"/>
       <c r="C132" s="153"/>
       <c r="D132" s="153"/>
@@ -7426,17 +7312,17 @@
       <c r="P132" s="153"/>
       <c r="Q132" s="153"/>
     </row>
-    <row r="133" spans="2:17">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B133" s="152"/>
       <c r="C133" s="153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D133" s="153"/>
       <c r="E133" s="153">
         <v>544523</v>
       </c>
       <c r="F133" s="153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G133" s="153"/>
       <c r="H133" s="153"/>
@@ -7450,10 +7336,10 @@
       <c r="P133" s="153"/>
       <c r="Q133" s="153"/>
     </row>
-    <row r="134" spans="2:17">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B134" s="152"/>
       <c r="C134" s="153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D134" s="153"/>
       <c r="E134" s="154">
@@ -7461,7 +7347,7 @@
         <v>54.452399999999997</v>
       </c>
       <c r="F134" s="153" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G134" s="153"/>
       <c r="H134" s="153"/>
@@ -7475,7 +7361,7 @@
       <c r="P134" s="153"/>
       <c r="Q134" s="153"/>
     </row>
-    <row r="135" spans="2:17">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B135" s="152"/>
       <c r="C135" s="153"/>
       <c r="D135" s="153"/>
@@ -7483,7 +7369,7 @@
         <v>42.29</v>
       </c>
       <c r="F135" s="153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G135" s="153"/>
       <c r="H135" s="153"/>
@@ -7497,7 +7383,7 @@
       <c r="P135" s="153"/>
       <c r="Q135" s="153"/>
     </row>
-    <row r="136" spans="2:17">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B136" s="152"/>
       <c r="C136" s="153"/>
       <c r="D136" s="153"/>
@@ -7515,7 +7401,7 @@
       <c r="P136" s="153"/>
       <c r="Q136" s="153"/>
     </row>
-    <row r="137" spans="2:17">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B137" s="152"/>
       <c r="C137" s="153"/>
       <c r="D137" s="153"/>
@@ -7533,7 +7419,7 @@
       <c r="P137" s="153"/>
       <c r="Q137" s="153"/>
     </row>
-    <row r="138" spans="2:17">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B138" s="152"/>
       <c r="C138" s="153"/>
       <c r="D138" s="153"/>
@@ -7551,7 +7437,7 @@
       <c r="P138" s="153"/>
       <c r="Q138" s="153"/>
     </row>
-    <row r="139" spans="2:17">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B139" s="152"/>
       <c r="C139" s="153"/>
       <c r="D139" s="153"/>
@@ -7569,7 +7455,7 @@
       <c r="P139" s="153"/>
       <c r="Q139" s="153"/>
     </row>
-    <row r="140" spans="2:17">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B140" s="152"/>
       <c r="C140" s="153"/>
       <c r="D140" s="153"/>
@@ -7587,7 +7473,7 @@
       <c r="P140" s="153"/>
       <c r="Q140" s="153"/>
     </row>
-    <row r="141" spans="2:17">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B141" s="152"/>
       <c r="C141" s="153"/>
       <c r="D141" s="153"/>
@@ -7605,7 +7491,7 @@
       <c r="P141" s="153"/>
       <c r="Q141" s="153"/>
     </row>
-    <row r="142" spans="2:17">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B142" s="152"/>
       <c r="C142" s="153"/>
       <c r="D142" s="153"/>
@@ -7623,7 +7509,7 @@
       <c r="P142" s="153"/>
       <c r="Q142" s="153"/>
     </row>
-    <row r="143" spans="2:17">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B143" s="152"/>
       <c r="C143" s="153"/>
       <c r="D143" s="153"/>
@@ -7641,7 +7527,7 @@
       <c r="P143" s="153"/>
       <c r="Q143" s="153"/>
     </row>
-    <row r="144" spans="2:17">
+    <row r="144" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B144" s="152"/>
       <c r="C144" s="153"/>
       <c r="D144" s="153"/>
@@ -7659,7 +7545,7 @@
       <c r="P144" s="153"/>
       <c r="Q144" s="153"/>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B145" s="152"/>
       <c r="C145" s="153"/>
       <c r="D145" s="153"/>
@@ -7677,7 +7563,7 @@
       <c r="P145" s="153"/>
       <c r="Q145" s="153"/>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B146" s="152"/>
       <c r="C146" s="153"/>
       <c r="D146" s="153"/>
@@ -7695,7 +7581,7 @@
       <c r="P146" s="153"/>
       <c r="Q146" s="153"/>
     </row>
-    <row r="147" spans="2:17">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B147" s="152"/>
       <c r="C147" s="153"/>
       <c r="D147" s="153"/>
@@ -7713,7 +7599,7 @@
       <c r="P147" s="153"/>
       <c r="Q147" s="153"/>
     </row>
-    <row r="148" spans="2:17">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B148" s="152"/>
       <c r="C148" s="153"/>
       <c r="D148" s="153"/>
@@ -7731,7 +7617,7 @@
       <c r="P148" s="153"/>
       <c r="Q148" s="153"/>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B149" s="152"/>
       <c r="C149" s="153"/>
       <c r="D149" s="153"/>
@@ -7749,7 +7635,7 @@
       <c r="P149" s="153"/>
       <c r="Q149" s="153"/>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B150" s="152"/>
       <c r="C150" s="153"/>
       <c r="D150" s="153"/>
@@ -7767,7 +7653,7 @@
       <c r="P150" s="153"/>
       <c r="Q150" s="153"/>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B151" s="152"/>
       <c r="C151" s="153"/>
       <c r="D151" s="153"/>
@@ -7785,7 +7671,7 @@
       <c r="P151" s="153"/>
       <c r="Q151" s="153"/>
     </row>
-    <row r="152" spans="2:17">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B152" s="152"/>
       <c r="C152" s="153"/>
       <c r="D152" s="153"/>
@@ -7803,7 +7689,7 @@
       <c r="P152" s="153"/>
       <c r="Q152" s="153"/>
     </row>
-    <row r="153" spans="2:17">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B153" s="152"/>
       <c r="C153" s="153"/>
       <c r="D153" s="153"/>
@@ -7821,7 +7707,7 @@
       <c r="P153" s="153"/>
       <c r="Q153" s="153"/>
     </row>
-    <row r="154" spans="2:17">
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B154" s="152"/>
       <c r="C154" s="153"/>
       <c r="D154" s="153"/>
@@ -7839,7 +7725,7 @@
       <c r="P154" s="153"/>
       <c r="Q154" s="153"/>
     </row>
-    <row r="155" spans="2:17">
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B155" s="152"/>
       <c r="C155" s="153"/>
       <c r="D155" s="153"/>
@@ -7857,7 +7743,7 @@
       <c r="P155" s="153"/>
       <c r="Q155" s="153"/>
     </row>
-    <row r="156" spans="2:17">
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B156" s="152"/>
       <c r="C156" s="153"/>
       <c r="D156" s="153"/>
@@ -7875,7 +7761,7 @@
       <c r="P156" s="153"/>
       <c r="Q156" s="153"/>
     </row>
-    <row r="157" spans="2:17">
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B157" s="152"/>
       <c r="C157" s="153"/>
       <c r="D157" s="153"/>
@@ -7893,7 +7779,7 @@
       <c r="P157" s="153"/>
       <c r="Q157" s="153"/>
     </row>
-    <row r="158" spans="2:17">
+    <row r="158" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B158" s="152"/>
       <c r="C158" s="153"/>
       <c r="D158" s="153"/>
@@ -7911,7 +7797,7 @@
       <c r="P158" s="153"/>
       <c r="Q158" s="153"/>
     </row>
-    <row r="159" spans="2:17">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B159" s="152"/>
       <c r="C159" s="153"/>
       <c r="D159" s="153"/>
@@ -7929,7 +7815,7 @@
       <c r="P159" s="153"/>
       <c r="Q159" s="153"/>
     </row>
-    <row r="160" spans="2:17">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B160" s="152"/>
       <c r="C160" s="153"/>
       <c r="D160" s="153"/>
@@ -7947,7 +7833,7 @@
       <c r="P160" s="153"/>
       <c r="Q160" s="153"/>
     </row>
-    <row r="161" spans="2:17">
+    <row r="161" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B161" s="152"/>
       <c r="C161" s="153"/>
       <c r="D161" s="153"/>
@@ -7965,7 +7851,7 @@
       <c r="P161" s="153"/>
       <c r="Q161" s="153"/>
     </row>
-    <row r="162" spans="2:17">
+    <row r="162" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B162" s="152"/>
       <c r="C162" s="153"/>
       <c r="D162" s="153"/>
@@ -7983,7 +7869,7 @@
       <c r="P162" s="153"/>
       <c r="Q162" s="153"/>
     </row>
-    <row r="163" spans="2:17">
+    <row r="163" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B163" s="152"/>
       <c r="C163" s="153"/>
       <c r="D163" s="153"/>
@@ -8001,7 +7887,7 @@
       <c r="P163" s="153"/>
       <c r="Q163" s="153"/>
     </row>
-    <row r="164" spans="2:17">
+    <row r="164" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B164" s="152"/>
       <c r="C164" s="153"/>
       <c r="D164" s="153"/>
@@ -8019,7 +7905,7 @@
       <c r="P164" s="153"/>
       <c r="Q164" s="153"/>
     </row>
-    <row r="165" spans="2:17">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B165" s="152"/>
       <c r="C165" s="153"/>
       <c r="D165" s="153"/>
@@ -8037,7 +7923,7 @@
       <c r="P165" s="153"/>
       <c r="Q165" s="153"/>
     </row>
-    <row r="166" spans="2:17">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B166" s="152"/>
       <c r="C166" s="153"/>
       <c r="D166" s="153"/>
@@ -8055,7 +7941,7 @@
       <c r="P166" s="153"/>
       <c r="Q166" s="153"/>
     </row>
-    <row r="167" spans="2:17">
+    <row r="167" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B167" s="152"/>
       <c r="C167" s="153"/>
       <c r="D167" s="153"/>
@@ -8073,7 +7959,7 @@
       <c r="P167" s="153"/>
       <c r="Q167" s="153"/>
     </row>
-    <row r="168" spans="2:17">
+    <row r="168" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B168" s="152"/>
       <c r="C168" s="153"/>
       <c r="D168" s="153"/>
@@ -8091,7 +7977,7 @@
       <c r="P168" s="153"/>
       <c r="Q168" s="153"/>
     </row>
-    <row r="169" spans="2:17">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B169" s="152"/>
       <c r="C169" s="153"/>
       <c r="D169" s="153"/>
@@ -8109,7 +7995,7 @@
       <c r="P169" s="153"/>
       <c r="Q169" s="153"/>
     </row>
-    <row r="170" spans="2:17">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B170" s="152"/>
       <c r="C170" s="153"/>
       <c r="D170" s="153"/>
@@ -8127,7 +8013,7 @@
       <c r="P170" s="153"/>
       <c r="Q170" s="153"/>
     </row>
-    <row r="171" spans="2:17">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B171" s="152"/>
       <c r="C171" s="153"/>
       <c r="D171" s="153"/>
@@ -8145,7 +8031,7 @@
       <c r="P171" s="153"/>
       <c r="Q171" s="153"/>
     </row>
-    <row r="172" spans="2:17">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B172" s="152"/>
       <c r="C172" s="153"/>
       <c r="D172" s="153"/>
@@ -8163,7 +8049,7 @@
       <c r="P172" s="153"/>
       <c r="Q172" s="153"/>
     </row>
-    <row r="173" spans="2:17">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B173" s="152"/>
       <c r="C173" s="153"/>
       <c r="D173" s="153"/>
@@ -8181,10 +8067,10 @@
       <c r="P173" s="153"/>
       <c r="Q173" s="153"/>
     </row>
-    <row r="174" spans="2:17">
+    <row r="174" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B174" s="152"/>
       <c r="C174" s="153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D174" s="153"/>
       <c r="E174" s="153"/>
@@ -8201,10 +8087,10 @@
       <c r="P174" s="153"/>
       <c r="Q174" s="153"/>
     </row>
-    <row r="175" spans="2:17">
+    <row r="175" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B175" s="152"/>
       <c r="C175" s="153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D175" s="153"/>
       <c r="E175" s="153"/>
@@ -8221,7 +8107,7 @@
       <c r="P175" s="153"/>
       <c r="Q175" s="153"/>
     </row>
-    <row r="176" spans="2:17">
+    <row r="176" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B176" s="152"/>
       <c r="C176" s="153"/>
       <c r="D176" s="153"/>
@@ -8239,7 +8125,7 @@
       <c r="P176" s="153"/>
       <c r="Q176" s="153"/>
     </row>
-    <row r="177" spans="2:17">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B177" s="152"/>
       <c r="C177" s="153"/>
       <c r="D177" s="153"/>
@@ -8257,7 +8143,7 @@
       <c r="P177" s="153"/>
       <c r="Q177" s="153"/>
     </row>
-    <row r="178" spans="2:17">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B178" s="152"/>
       <c r="C178" s="153"/>
       <c r="D178" s="153"/>
@@ -8275,7 +8161,7 @@
       <c r="P178" s="153"/>
       <c r="Q178" s="153"/>
     </row>
-    <row r="179" spans="2:17">
+    <row r="179" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B179" s="152"/>
       <c r="C179" s="153"/>
       <c r="D179" s="153"/>
@@ -8293,7 +8179,7 @@
       <c r="P179" s="153"/>
       <c r="Q179" s="153"/>
     </row>
-    <row r="180" spans="2:17">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B180" s="152"/>
       <c r="C180" s="153"/>
       <c r="D180" s="153"/>
@@ -8311,7 +8197,7 @@
       <c r="P180" s="153"/>
       <c r="Q180" s="153"/>
     </row>
-    <row r="181" spans="2:17">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B181" s="152"/>
       <c r="C181" s="153"/>
       <c r="D181" s="153"/>
@@ -8329,7 +8215,7 @@
       <c r="P181" s="153"/>
       <c r="Q181" s="153"/>
     </row>
-    <row r="182" spans="2:17">
+    <row r="182" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B182" s="152"/>
       <c r="C182" s="153"/>
       <c r="D182" s="153"/>
@@ -8347,7 +8233,7 @@
       <c r="P182" s="153"/>
       <c r="Q182" s="153"/>
     </row>
-    <row r="183" spans="2:17">
+    <row r="183" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B183" s="152"/>
       <c r="C183" s="153"/>
       <c r="D183" s="153"/>
@@ -8365,7 +8251,7 @@
       <c r="P183" s="153"/>
       <c r="Q183" s="153"/>
     </row>
-    <row r="184" spans="2:17">
+    <row r="184" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B184" s="152"/>
       <c r="C184" s="153"/>
       <c r="D184" s="153"/>
@@ -8387,7 +8273,7 @@
       <c r="P184" s="153"/>
       <c r="Q184" s="153"/>
     </row>
-    <row r="185" spans="2:17">
+    <row r="185" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B185" s="152"/>
       <c r="C185" s="153"/>
       <c r="D185" s="153"/>
@@ -8395,7 +8281,7 @@
         <v>1415</v>
       </c>
       <c r="F185" s="153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G185" s="153"/>
       <c r="H185" s="153"/>
@@ -8409,7 +8295,7 @@
       <c r="P185" s="153"/>
       <c r="Q185" s="153"/>
     </row>
-    <row r="186" spans="2:17">
+    <row r="186" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B186" s="152"/>
       <c r="C186" s="153"/>
       <c r="D186" s="153"/>
@@ -8427,7 +8313,7 @@
       <c r="P186" s="153"/>
       <c r="Q186" s="153"/>
     </row>
-    <row r="187" spans="2:17">
+    <row r="187" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B187" s="152"/>
       <c r="C187" s="153"/>
       <c r="D187" s="153"/>
@@ -8445,7 +8331,7 @@
       <c r="P187" s="153"/>
       <c r="Q187" s="153"/>
     </row>
-    <row r="188" spans="2:17">
+    <row r="188" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B188" s="152"/>
       <c r="C188" s="153"/>
       <c r="D188" s="153"/>
@@ -8463,7 +8349,7 @@
       <c r="P188" s="153"/>
       <c r="Q188" s="153"/>
     </row>
-    <row r="189" spans="2:17">
+    <row r="189" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B189" s="152"/>
       <c r="C189" s="153"/>
       <c r="D189" s="153"/>
@@ -8481,7 +8367,7 @@
       <c r="P189" s="153"/>
       <c r="Q189" s="153"/>
     </row>
-    <row r="190" spans="2:17">
+    <row r="190" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B190" s="152"/>
       <c r="C190" s="153"/>
       <c r="D190" s="153"/>
@@ -8499,10 +8385,10 @@
       <c r="P190" s="153"/>
       <c r="Q190" s="153"/>
     </row>
-    <row r="191" spans="2:17">
+    <row r="191" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B191" s="152"/>
       <c r="C191" s="153" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D191" s="153"/>
       <c r="E191" s="153"/>
@@ -8519,10 +8405,10 @@
       <c r="P191" s="153"/>
       <c r="Q191" s="153"/>
     </row>
-    <row r="192" spans="2:17">
+    <row r="192" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B192" s="152"/>
       <c r="C192" s="153" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D192" s="153"/>
       <c r="E192" s="153"/>
@@ -8539,7 +8425,7 @@
       <c r="P192" s="153"/>
       <c r="Q192" s="153"/>
     </row>
-    <row r="193" spans="2:17">
+    <row r="193" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B193" s="152"/>
       <c r="C193" s="153"/>
       <c r="D193" s="153"/>
@@ -8557,7 +8443,7 @@
       <c r="P193" s="153"/>
       <c r="Q193" s="153"/>
     </row>
-    <row r="194" spans="2:17">
+    <row r="194" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B194" s="152"/>
       <c r="C194" s="153"/>
       <c r="D194" s="153"/>
@@ -8575,7 +8461,7 @@
       <c r="P194" s="153"/>
       <c r="Q194" s="153"/>
     </row>
-    <row r="195" spans="2:17">
+    <row r="195" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B195" s="152"/>
       <c r="C195" s="153"/>
       <c r="D195" s="153"/>
@@ -8593,7 +8479,7 @@
       <c r="P195" s="153"/>
       <c r="Q195" s="153"/>
     </row>
-    <row r="196" spans="2:17">
+    <row r="196" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B196" s="152"/>
       <c r="C196" s="153"/>
       <c r="D196" s="153"/>
@@ -8611,7 +8497,7 @@
       <c r="P196" s="153"/>
       <c r="Q196" s="153"/>
     </row>
-    <row r="197" spans="2:17">
+    <row r="197" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B197" s="152"/>
       <c r="C197" s="153"/>
       <c r="D197" s="153"/>
@@ -8629,7 +8515,7 @@
       <c r="P197" s="153"/>
       <c r="Q197" s="153"/>
     </row>
-    <row r="198" spans="2:17">
+    <row r="198" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B198" s="152"/>
       <c r="C198" s="153"/>
       <c r="D198" s="153"/>
@@ -8647,7 +8533,7 @@
       <c r="P198" s="153"/>
       <c r="Q198" s="153"/>
     </row>
-    <row r="199" spans="2:17">
+    <row r="199" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B199" s="152"/>
       <c r="C199" s="153"/>
       <c r="D199" s="153"/>
@@ -8665,7 +8551,7 @@
       <c r="P199" s="153"/>
       <c r="Q199" s="153"/>
     </row>
-    <row r="200" spans="2:17">
+    <row r="200" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B200" s="152"/>
       <c r="C200" s="153"/>
       <c r="D200" s="153"/>
@@ -8683,7 +8569,7 @@
       <c r="P200" s="153"/>
       <c r="Q200" s="153"/>
     </row>
-    <row r="201" spans="2:17">
+    <row r="201" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B201" s="152"/>
       <c r="C201" s="153"/>
       <c r="D201" s="153"/>
@@ -8701,7 +8587,7 @@
       <c r="P201" s="153"/>
       <c r="Q201" s="153"/>
     </row>
-    <row r="202" spans="2:17">
+    <row r="202" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B202" s="152"/>
       <c r="C202" s="153"/>
       <c r="D202" s="153"/>
@@ -8709,7 +8595,7 @@
         <v>2</v>
       </c>
       <c r="F202" s="153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G202" s="153"/>
       <c r="H202" s="153"/>
@@ -8723,7 +8609,7 @@
       <c r="P202" s="153"/>
       <c r="Q202" s="153"/>
     </row>
-    <row r="203" spans="2:17">
+    <row r="203" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B203" s="152"/>
       <c r="C203" s="153"/>
       <c r="D203" s="153"/>
@@ -8741,7 +8627,7 @@
       <c r="P203" s="153"/>
       <c r="Q203" s="153"/>
     </row>
-    <row r="204" spans="2:17">
+    <row r="204" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B204" s="152"/>
       <c r="C204" s="153"/>
       <c r="D204" s="153"/>
@@ -8759,7 +8645,7 @@
       <c r="P204" s="153"/>
       <c r="Q204" s="153"/>
     </row>
-    <row r="205" spans="2:17">
+    <row r="205" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B205" s="152"/>
       <c r="C205" s="153"/>
       <c r="D205" s="153"/>
@@ -8777,7 +8663,7 @@
       <c r="P205" s="153"/>
       <c r="Q205" s="153"/>
     </row>
-    <row r="206" spans="2:17">
+    <row r="206" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B206" s="152"/>
       <c r="C206" s="153"/>
       <c r="D206" s="153"/>
@@ -8795,7 +8681,7 @@
       <c r="P206" s="153"/>
       <c r="Q206" s="153"/>
     </row>
-    <row r="207" spans="2:17">
+    <row r="207" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B207" s="152"/>
       <c r="C207" s="153"/>
       <c r="D207" s="153"/>
@@ -8813,7 +8699,7 @@
       <c r="P207" s="153"/>
       <c r="Q207" s="153"/>
     </row>
-    <row r="208" spans="2:17">
+    <row r="208" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B208" s="152"/>
       <c r="C208" s="153"/>
       <c r="D208" s="153"/>
@@ -8831,7 +8717,7 @@
       <c r="P208" s="153"/>
       <c r="Q208" s="153"/>
     </row>
-    <row r="209" spans="2:17">
+    <row r="209" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B209" s="152"/>
       <c r="C209" s="153"/>
       <c r="D209" s="153"/>
@@ -8849,7 +8735,7 @@
       <c r="P209" s="153"/>
       <c r="Q209" s="153"/>
     </row>
-    <row r="210" spans="2:17">
+    <row r="210" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B210" s="152"/>
       <c r="C210" s="153"/>
       <c r="D210" s="153"/>
@@ -8867,7 +8753,7 @@
       <c r="P210" s="153"/>
       <c r="Q210" s="153"/>
     </row>
-    <row r="211" spans="2:17">
+    <row r="211" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B211" s="152"/>
       <c r="C211" s="153"/>
       <c r="D211" s="153"/>
@@ -8885,10 +8771,10 @@
       <c r="P211" s="153"/>
       <c r="Q211" s="153"/>
     </row>
-    <row r="212" spans="2:17">
+    <row r="212" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B212" s="152"/>
       <c r="C212" s="153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D212" s="153"/>
       <c r="E212" s="153"/>
@@ -8905,10 +8791,10 @@
       <c r="P212" s="153"/>
       <c r="Q212" s="153"/>
     </row>
-    <row r="213" spans="2:17">
+    <row r="213" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B213" s="152"/>
       <c r="C213" s="153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D213" s="153"/>
       <c r="E213" s="153"/>
@@ -8925,7 +8811,7 @@
       <c r="P213" s="153"/>
       <c r="Q213" s="153"/>
     </row>
-    <row r="214" spans="2:17">
+    <row r="214" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B214" s="152"/>
       <c r="C214" s="153"/>
       <c r="D214" s="153"/>
@@ -8943,7 +8829,7 @@
       <c r="P214" s="153"/>
       <c r="Q214" s="153"/>
     </row>
-    <row r="215" spans="2:17">
+    <row r="215" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B215" s="152"/>
       <c r="C215" s="153"/>
       <c r="D215" s="153"/>
@@ -8961,7 +8847,7 @@
       <c r="P215" s="153"/>
       <c r="Q215" s="153"/>
     </row>
-    <row r="216" spans="2:17">
+    <row r="216" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B216" s="152"/>
       <c r="C216" s="153"/>
       <c r="D216" s="153"/>
@@ -8979,7 +8865,7 @@
       <c r="P216" s="153"/>
       <c r="Q216" s="153"/>
     </row>
-    <row r="217" spans="2:17">
+    <row r="217" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B217" s="152"/>
       <c r="C217" s="153"/>
       <c r="D217" s="153"/>
@@ -8987,7 +8873,7 @@
         <v>30</v>
       </c>
       <c r="F217" s="153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G217" s="153"/>
       <c r="H217" s="153"/>
@@ -9001,7 +8887,7 @@
       <c r="P217" s="153"/>
       <c r="Q217" s="153"/>
     </row>
-    <row r="218" spans="2:17">
+    <row r="218" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B218" s="152"/>
       <c r="C218" s="153"/>
       <c r="D218" s="153"/>
@@ -9019,7 +8905,7 @@
       <c r="P218" s="153"/>
       <c r="Q218" s="153"/>
     </row>
-    <row r="219" spans="2:17">
+    <row r="219" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B219" s="152"/>
       <c r="C219" s="153"/>
       <c r="D219" s="153"/>
@@ -9037,7 +8923,7 @@
       <c r="P219" s="153"/>
       <c r="Q219" s="153"/>
     </row>
-    <row r="220" spans="2:17">
+    <row r="220" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B220" s="152"/>
       <c r="C220" s="153"/>
       <c r="D220" s="153"/>
@@ -9055,10 +8941,10 @@
       <c r="P220" s="153"/>
       <c r="Q220" s="153"/>
     </row>
-    <row r="221" spans="2:17">
+    <row r="221" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B221" s="152"/>
       <c r="C221" s="153" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D221" s="153"/>
       <c r="E221" s="153"/>
@@ -9075,7 +8961,7 @@
       <c r="P221" s="153"/>
       <c r="Q221" s="153"/>
     </row>
-    <row r="222" spans="2:17">
+    <row r="222" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B222" s="152"/>
       <c r="C222" s="153"/>
       <c r="D222" s="153"/>
@@ -9093,7 +8979,7 @@
       <c r="P222" s="153"/>
       <c r="Q222" s="153"/>
     </row>
-    <row r="223" spans="2:17">
+    <row r="223" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B223" s="152"/>
       <c r="C223" s="153"/>
       <c r="D223" s="153"/>
@@ -9111,7 +8997,7 @@
       <c r="P223" s="153"/>
       <c r="Q223" s="153"/>
     </row>
-    <row r="224" spans="2:17">
+    <row r="224" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B224" s="152"/>
       <c r="C224" s="153"/>
       <c r="D224" s="153"/>
@@ -9129,7 +9015,7 @@
       <c r="P224" s="153"/>
       <c r="Q224" s="153"/>
     </row>
-    <row r="225" spans="2:17">
+    <row r="225" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B225" s="152"/>
       <c r="C225" s="153"/>
       <c r="D225" s="153"/>
@@ -9147,7 +9033,7 @@
       <c r="P225" s="153"/>
       <c r="Q225" s="153"/>
     </row>
-    <row r="226" spans="2:17">
+    <row r="226" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B226" s="152"/>
       <c r="C226" s="153"/>
       <c r="D226" s="153"/>
@@ -9165,7 +9051,7 @@
       <c r="P226" s="153"/>
       <c r="Q226" s="153"/>
     </row>
-    <row r="227" spans="2:17">
+    <row r="227" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B227" s="152"/>
       <c r="C227" s="153"/>
       <c r="D227" s="153"/>
@@ -9183,7 +9069,7 @@
       <c r="P227" s="153"/>
       <c r="Q227" s="153"/>
     </row>
-    <row r="228" spans="2:17">
+    <row r="228" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B228" s="152"/>
       <c r="C228" s="153"/>
       <c r="D228" s="153"/>
@@ -9201,7 +9087,7 @@
       <c r="P228" s="153"/>
       <c r="Q228" s="153"/>
     </row>
-    <row r="229" spans="2:17">
+    <row r="229" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B229" s="152"/>
       <c r="C229" s="153"/>
       <c r="D229" s="153"/>
@@ -9219,7 +9105,7 @@
       <c r="P229" s="153"/>
       <c r="Q229" s="153"/>
     </row>
-    <row r="230" spans="2:17">
+    <row r="230" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B230" s="152"/>
       <c r="C230" s="153"/>
       <c r="D230" s="153"/>
@@ -9237,7 +9123,7 @@
       <c r="P230" s="153"/>
       <c r="Q230" s="153"/>
     </row>
-    <row r="231" spans="2:17">
+    <row r="231" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B231" s="152"/>
       <c r="C231" s="153"/>
       <c r="D231" s="153"/>
@@ -9255,7 +9141,7 @@
       <c r="P231" s="153"/>
       <c r="Q231" s="153"/>
     </row>
-    <row r="232" spans="2:17">
+    <row r="232" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B232" s="152"/>
       <c r="C232" s="153"/>
       <c r="D232" s="153"/>
@@ -9273,7 +9159,7 @@
       <c r="P232" s="153"/>
       <c r="Q232" s="153"/>
     </row>
-    <row r="233" spans="2:17">
+    <row r="233" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B233" s="152"/>
       <c r="C233" s="153"/>
       <c r="D233" s="153"/>
@@ -9291,7 +9177,7 @@
       <c r="P233" s="153"/>
       <c r="Q233" s="153"/>
     </row>
-    <row r="234" spans="2:17">
+    <row r="234" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B234" s="152"/>
       <c r="C234" s="153"/>
       <c r="D234" s="153"/>
@@ -9309,7 +9195,7 @@
       <c r="P234" s="153"/>
       <c r="Q234" s="153"/>
     </row>
-    <row r="235" spans="2:17">
+    <row r="235" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B235" s="152"/>
       <c r="C235" s="153"/>
       <c r="D235" s="153"/>
@@ -9327,7 +9213,7 @@
       <c r="P235" s="153"/>
       <c r="Q235" s="153"/>
     </row>
-    <row r="236" spans="2:17">
+    <row r="236" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B236" s="152"/>
       <c r="C236" s="153"/>
       <c r="D236" s="153"/>
@@ -9335,7 +9221,7 @@
         <v>3</v>
       </c>
       <c r="F236" s="153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G236" s="153"/>
       <c r="H236" s="153"/>
@@ -9349,7 +9235,7 @@
       <c r="P236" s="153"/>
       <c r="Q236" s="153"/>
     </row>
-    <row r="237" spans="2:17">
+    <row r="237" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B237" s="152"/>
       <c r="C237" s="153"/>
       <c r="D237" s="153"/>
@@ -9367,7 +9253,7 @@
       <c r="P237" s="153"/>
       <c r="Q237" s="153"/>
     </row>
-    <row r="238" spans="2:17">
+    <row r="238" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B238" s="152"/>
       <c r="C238" s="153"/>
       <c r="D238" s="153"/>
@@ -9385,7 +9271,7 @@
       <c r="P238" s="153"/>
       <c r="Q238" s="153"/>
     </row>
-    <row r="239" spans="2:17">
+    <row r="239" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B239" s="152"/>
       <c r="C239" s="153"/>
       <c r="D239" s="153"/>
@@ -9403,7 +9289,7 @@
       <c r="P239" s="153"/>
       <c r="Q239" s="153"/>
     </row>
-    <row r="240" spans="2:17">
+    <row r="240" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B240" s="152"/>
       <c r="C240" s="153"/>
       <c r="D240" s="153"/>
@@ -9421,7 +9307,7 @@
       <c r="P240" s="153"/>
       <c r="Q240" s="153"/>
     </row>
-    <row r="241" spans="2:17">
+    <row r="241" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B241" s="152"/>
       <c r="C241" s="153"/>
       <c r="D241" s="153"/>
@@ -9439,7 +9325,7 @@
       <c r="P241" s="153"/>
       <c r="Q241" s="153"/>
     </row>
-    <row r="242" spans="2:17">
+    <row r="242" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B242" s="152"/>
       <c r="C242" s="153"/>
       <c r="D242" s="153"/>
@@ -9457,7 +9343,7 @@
       <c r="P242" s="153"/>
       <c r="Q242" s="153"/>
     </row>
-    <row r="243" spans="2:17">
+    <row r="243" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B243" s="152"/>
       <c r="C243" s="153"/>
       <c r="D243" s="153"/>
@@ -9475,7 +9361,7 @@
       <c r="P243" s="153"/>
       <c r="Q243" s="153"/>
     </row>
-    <row r="244" spans="2:17">
+    <row r="244" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B244" s="152"/>
       <c r="C244" s="153"/>
       <c r="D244" s="153"/>
@@ -9493,7 +9379,7 @@
       <c r="P244" s="153"/>
       <c r="Q244" s="153"/>
     </row>
-    <row r="245" spans="2:17">
+    <row r="245" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B245" s="152"/>
       <c r="C245" s="153"/>
       <c r="D245" s="153"/>
@@ -9514,10 +9400,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_geothermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_geothermal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F3E55C-A90E-6C42-A440-5858BB06A9E9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C3E93-53FD-0B4F-92FC-1CBFDD9AB469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
   <si>
     <t>Source</t>
   </si>
@@ -727,6 +733,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1507,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1785,6 +1794,7 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2940,12 +2950,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -3119,23 +3129,23 @@
   </sheetPr>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3594,15 +3604,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>57</v>
+      <c r="I28" s="162" t="s">
+        <v>158</v>
       </c>
       <c r="J28" s="122"/>
     </row>
@@ -3850,27 +3860,27 @@
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="71" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="71" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="71" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="71" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="71" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="72" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="71" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="71" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="71" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="72" customWidth="1"/>
     <col min="10" max="10" width="3" style="72" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="72" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="72" customWidth="1"/>
     <col min="12" max="12" width="3" style="72" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="72" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="72" customWidth="1"/>
     <col min="14" max="14" width="3" style="72" customWidth="1"/>
-    <col min="15" max="15" width="8.6640625" style="72" customWidth="1"/>
-    <col min="16" max="16" width="2.6640625" style="72" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" style="72" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="72" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="72" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="72" customWidth="1"/>
     <col min="18" max="18" width="3" style="72" customWidth="1"/>
     <col min="19" max="19" width="60" style="71" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="71"/>
+    <col min="20" max="16384" width="10.7109375" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
@@ -4387,18 +4397,18 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="33.1640625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="76.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="76.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4544,7 +4554,7 @@
       <c r="J10" s="54"/>
       <c r="K10" s="69"/>
     </row>
-    <row r="11" spans="2:11" ht="32">
+    <row r="11" spans="2:11" ht="34">
       <c r="B11" s="50"/>
       <c r="C11" s="63"/>
       <c r="D11" s="63"/>
@@ -4819,11 +4829,11 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="146" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="146"/>
+    <col min="1" max="1" width="5.85546875" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="146" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17" thickBot="1"/>
